--- a/SCBAA/2018/Region 4A.xlsx
+++ b/SCBAA/2018/Region 4A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\RESEARCH\2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6825CB20-9365-419F-BDE5-4AF66123A7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5DB7A9-407D-4EA0-A9C6-AB7255A81FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12990" yWindow="1395" windowWidth="14850" windowHeight="12495" firstSheet="15" activeTab="19" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="12225" yWindow="0" windowWidth="14880" windowHeight="11070" activeTab="1" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Batangas" sheetId="1" r:id="rId1"/>
@@ -38,6 +38,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -14007,7 +14014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A90583-0586-44F3-972D-F93194D91F3D}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
     </sheetView>
   </sheetViews>
@@ -14645,7 +14652,9 @@
       <c r="D60" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E60" s="27"/>
+      <c r="E60" s="27">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
@@ -15194,7 +15203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9440BEA7-A76D-4E33-9E98-A6B41D90AE3C}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>

--- a/SCBAA/2018/Region 4A.xlsx
+++ b/SCBAA/2018/Region 4A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5DB7A9-407D-4EA0-A9C6-AB7255A81FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229D7132-84F3-4A0C-B23D-B2C8E42DCCAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12225" yWindow="0" windowWidth="14880" windowHeight="11070" activeTab="1" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="3180" yWindow="1005" windowWidth="14880" windowHeight="11070" firstSheet="10" activeTab="14" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Batangas" sheetId="1" r:id="rId1"/>
@@ -5688,8 +5688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107BE555-7549-496B-AA41-611C3EF3534D}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5846,7 +5846,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f>SUM(E11:E13)</f>
         <v>921969153.78999996</v>
       </c>
     </row>
@@ -5900,7 +5899,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f>SUM(E16:E18)</f>
         <v>97553837.569999993</v>
       </c>
     </row>
@@ -6091,7 +6089,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1787197718.3599999</v>
       </c>
     </row>
@@ -6668,7 +6665,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>1388028191.5799997</v>
       </c>
     </row>
@@ -6835,7 +6831,6 @@
         <v>12</v>
       </c>
       <c r="E110" s="18">
-        <f>53962813.83+1587098.26</f>
         <v>55549912.089999996</v>
       </c>
     </row>
@@ -6844,7 +6839,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>312934744.76999992</v>
       </c>
     </row>
@@ -6856,7 +6850,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>1700962936.3499997</v>
       </c>
     </row>
@@ -8067,8 +8060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13408A92-10E8-4122-93F2-36319D5AA5AA}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView tabSelected="1" topLeftCell="E3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8225,7 +8218,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f>SUM(E11:E13)</f>
         <v>228255061.68000001</v>
       </c>
     </row>
@@ -8279,7 +8271,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f>SUM(E16:E18)</f>
         <v>156899726.91</v>
       </c>
     </row>
@@ -8470,7 +8461,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1130746651.2300003</v>
       </c>
     </row>
@@ -9027,7 +9017,6 @@
         <v>49</v>
       </c>
       <c r="E91" s="23">
-        <f>14791607.3+7076348.54</f>
         <v>21867955.84</v>
       </c>
     </row>
@@ -9039,7 +9028,6 @@
         <v>50</v>
       </c>
       <c r="E92" s="23">
-        <f>298000+547400</f>
         <v>845400</v>
       </c>
     </row>
@@ -9049,7 +9037,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>845965752.57000005</v>
       </c>
     </row>
@@ -9224,7 +9211,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>7472107.75</v>
       </c>
     </row>
@@ -9236,7 +9222,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>853437860.32000005</v>
       </c>
     </row>
@@ -14014,7 +13999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A90583-0586-44F3-972D-F93194D91F3D}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
     </sheetView>
   </sheetViews>
@@ -18770,8 +18755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EEB9910-BAD7-42F8-8F62-E983C9ED71BF}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18928,7 +18913,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f>SUM(E11:E13)</f>
         <v>749442868.26999998</v>
       </c>
     </row>
@@ -18971,7 +18955,6 @@
         <v>28</v>
       </c>
       <c r="E18" s="33">
-        <f>20010752.12+40073927.9</f>
         <v>60084680.019999996</v>
       </c>
     </row>
@@ -18983,7 +18966,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f>SUM(E16:E18)</f>
         <v>195348790.56999999</v>
       </c>
     </row>
@@ -19174,7 +19156,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>2186935068.29</v>
       </c>
     </row>
@@ -19742,7 +19723,6 @@
         <v>50</v>
       </c>
       <c r="E92" s="34">
-        <f>39589540.82+2940330.54</f>
         <v>42529871.359999999</v>
       </c>
     </row>
@@ -19752,7 +19732,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>2176490082.21</v>
       </c>
     </row>
@@ -19927,7 +19906,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>13873820</v>
       </c>
     </row>
@@ -19939,7 +19917,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>2190363902.21</v>
       </c>
     </row>
@@ -19961,8 +19938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C71BCD7-54E7-47B8-86D5-3AE9CEC38281}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E8" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20108,7 +20085,6 @@
         <v>25</v>
       </c>
       <c r="E13" s="35">
-        <f>24211591.62+5403335.82</f>
         <v>29614927.440000001</v>
       </c>
     </row>
@@ -20120,7 +20096,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f>SUM(E11:E13)</f>
         <v>102777558.75</v>
       </c>
     </row>
@@ -20163,7 +20138,6 @@
         <v>28</v>
       </c>
       <c r="E18" s="35">
-        <f>1021432.52+58750.86</f>
         <v>1080183.3800000001</v>
       </c>
     </row>
@@ -20175,7 +20149,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f>SUM(E16:E18)</f>
         <v>35861312.160000004</v>
       </c>
     </row>
@@ -20366,7 +20339,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>512822172.29999995</v>
       </c>
     </row>
@@ -20943,7 +20915,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>454163328.10999995</v>
       </c>
     </row>
@@ -21118,7 +21089,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>998175.59</v>
       </c>
     </row>
@@ -21130,7 +21100,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>455161503.69999993</v>
       </c>
     </row>
